--- a/data/pca/factorExposure/factorExposure_2012-12-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>4.639864739422431e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001857503453408287</v>
+      </c>
+      <c r="C2">
+        <v>-0.03116672501897663</v>
+      </c>
+      <c r="D2">
+        <v>0.005107101928147824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005045903798504684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006384485914155922</v>
+      </c>
+      <c r="C4">
+        <v>-0.08386206775309078</v>
+      </c>
+      <c r="D4">
+        <v>0.07786821916601802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005583979957358289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01445442352156472</v>
+      </c>
+      <c r="C6">
+        <v>-0.1141669930056593</v>
+      </c>
+      <c r="D6">
+        <v>0.03220411492119023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00147658929022309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005197901434639253</v>
+      </c>
+      <c r="C7">
+        <v>-0.05860274016652254</v>
+      </c>
+      <c r="D7">
+        <v>0.03062080144645383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.00101688141922685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005877874044564339</v>
+      </c>
+      <c r="C8">
+        <v>-0.03768813858319228</v>
+      </c>
+      <c r="D8">
+        <v>0.04041632172089014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003240886916640052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004566231204769383</v>
+      </c>
+      <c r="C9">
+        <v>-0.07039693170262507</v>
+      </c>
+      <c r="D9">
+        <v>0.07262166242960427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.003186112174875252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005439111068132957</v>
+      </c>
+      <c r="C10">
+        <v>-0.05876014085809425</v>
+      </c>
+      <c r="D10">
+        <v>-0.1974544993183956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002078278904850021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005858235302233065</v>
+      </c>
+      <c r="C11">
+        <v>-0.07962445976306272</v>
+      </c>
+      <c r="D11">
+        <v>0.05903974378605471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006797875001068866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004182028724962204</v>
+      </c>
+      <c r="C12">
+        <v>-0.06403615487298453</v>
+      </c>
+      <c r="D12">
+        <v>0.04586083454085861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002116312746687006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009087510350919214</v>
+      </c>
+      <c r="C13">
+        <v>-0.06845120610862419</v>
+      </c>
+      <c r="D13">
+        <v>0.05656443914772741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0007055473435251173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001644992128903502</v>
+      </c>
+      <c r="C14">
+        <v>-0.04537741987129782</v>
+      </c>
+      <c r="D14">
+        <v>0.003696784927071583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006350778050845208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006124702152167156</v>
+      </c>
+      <c r="C15">
+        <v>-0.04206542051053679</v>
+      </c>
+      <c r="D15">
+        <v>0.02988251578885468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0004941807626824124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005151076328987817</v>
+      </c>
+      <c r="C16">
+        <v>-0.06493438201331152</v>
+      </c>
+      <c r="D16">
+        <v>0.04859376869899821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0006188525542068498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009098381638351284</v>
+      </c>
+      <c r="C20">
+        <v>-0.06553801949925979</v>
+      </c>
+      <c r="D20">
+        <v>0.04265261733447183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005722262649125742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100617288166756</v>
+      </c>
+      <c r="C21">
+        <v>-0.02106113325487744</v>
+      </c>
+      <c r="D21">
+        <v>0.038213878472677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01578769531209094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006563942605720421</v>
+      </c>
+      <c r="C22">
+        <v>-0.0936185063670814</v>
+      </c>
+      <c r="D22">
+        <v>0.1122223732244912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01608523116363634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00637960596815576</v>
+      </c>
+      <c r="C23">
+        <v>-0.09443305632091446</v>
+      </c>
+      <c r="D23">
+        <v>0.1122442792802382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001073397151565264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005615866583723972</v>
+      </c>
+      <c r="C24">
+        <v>-0.07624793071387712</v>
+      </c>
+      <c r="D24">
+        <v>0.0628791844028445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00377415200762544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003141601767319629</v>
+      </c>
+      <c r="C25">
+        <v>-0.07846420372455201</v>
+      </c>
+      <c r="D25">
+        <v>0.06482750971882213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004327213319899452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003750273070849677</v>
+      </c>
+      <c r="C26">
+        <v>-0.04139086235229571</v>
+      </c>
+      <c r="D26">
+        <v>0.02284180627696377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.00376648559259074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007663841607007406</v>
+      </c>
+      <c r="C28">
+        <v>-0.1073652775356684</v>
+      </c>
+      <c r="D28">
+        <v>-0.3178088983610961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001099557594431078</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003474025501898761</v>
+      </c>
+      <c r="C29">
+        <v>-0.05119325157248025</v>
+      </c>
+      <c r="D29">
+        <v>0.006776394845615387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002525565225888694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009762444297103596</v>
+      </c>
+      <c r="C30">
+        <v>-0.1414916354960629</v>
+      </c>
+      <c r="D30">
+        <v>0.1022347055845716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.001086240341164296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006304562842151428</v>
+      </c>
+      <c r="C31">
+        <v>-0.04436584823976066</v>
+      </c>
+      <c r="D31">
+        <v>0.02874722296258629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0009720817744129674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004198281711657648</v>
+      </c>
+      <c r="C32">
+        <v>-0.03974344871908127</v>
+      </c>
+      <c r="D32">
+        <v>0.02095461730377181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002135635463028365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008624388945411969</v>
+      </c>
+      <c r="C33">
+        <v>-0.08641748167443937</v>
+      </c>
+      <c r="D33">
+        <v>0.06355385009499802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00407617398360237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004070840644849243</v>
+      </c>
+      <c r="C34">
+        <v>-0.05788823205756829</v>
+      </c>
+      <c r="D34">
+        <v>0.05338895416900991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001098096703826656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00507266726442798</v>
+      </c>
+      <c r="C35">
+        <v>-0.04039811918068785</v>
+      </c>
+      <c r="D35">
+        <v>0.01767051961010417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003612436745481683</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001061503955765787</v>
+      </c>
+      <c r="C36">
+        <v>-0.02468473906174976</v>
+      </c>
+      <c r="D36">
+        <v>0.0218210002667985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002409165311343214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009482248099643084</v>
+      </c>
+      <c r="C38">
+        <v>-0.03397699602548424</v>
+      </c>
+      <c r="D38">
+        <v>0.0163676055849798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01081326293897656</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003284059947345673</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156019529610739</v>
+      </c>
+      <c r="D39">
+        <v>0.07526774060652934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009236069790427726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002856469393451667</v>
+      </c>
+      <c r="C40">
+        <v>-0.09013033457437156</v>
+      </c>
+      <c r="D40">
+        <v>0.01298865037962602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>3.398501066268686e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007365912949989114</v>
+      </c>
+      <c r="C41">
+        <v>-0.03817734126986059</v>
+      </c>
+      <c r="D41">
+        <v>0.03707574536409785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002849972904029665</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004186774408962768</v>
+      </c>
+      <c r="C43">
+        <v>-0.05358876812687091</v>
+      </c>
+      <c r="D43">
+        <v>0.02479341712100343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004237916409675879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003532482436402717</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091810421911962</v>
+      </c>
+      <c r="D44">
+        <v>0.06767574709533968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.000994815038762943</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00231646267253384</v>
+      </c>
+      <c r="C46">
+        <v>-0.0332489108581368</v>
+      </c>
+      <c r="D46">
+        <v>0.0342943472077382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-1.30711463675417e-06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002814046818265198</v>
+      </c>
+      <c r="C47">
+        <v>-0.03751840005680557</v>
+      </c>
+      <c r="D47">
+        <v>0.02222929825449018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003860794217419347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006767888376759291</v>
+      </c>
+      <c r="C48">
+        <v>-0.03119602911840929</v>
+      </c>
+      <c r="D48">
+        <v>0.03268042045919544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0107855577018403</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01580799125387823</v>
+      </c>
+      <c r="C49">
+        <v>-0.1848374732654872</v>
+      </c>
+      <c r="D49">
+        <v>0.01591001868216756</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001391912085347429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003732430020979307</v>
+      </c>
+      <c r="C50">
+        <v>-0.04350047860905696</v>
+      </c>
+      <c r="D50">
+        <v>0.03535941174395922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0009335627643029217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004509223839181219</v>
+      </c>
+      <c r="C51">
+        <v>-0.02617983332044305</v>
+      </c>
+      <c r="D51">
+        <v>0.02042036455022711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001968374079272636</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02129127808440447</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696261487186458</v>
+      </c>
+      <c r="D53">
+        <v>0.02620838687848218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001265709306541526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008881934280395187</v>
+      </c>
+      <c r="C54">
+        <v>-0.05407184516415424</v>
+      </c>
+      <c r="D54">
+        <v>0.04430768684533323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00290466227499079</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009868533029560544</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094573759584613</v>
+      </c>
+      <c r="D55">
+        <v>0.03840165011672308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003659124430599577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02044142438912355</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741746612744426</v>
+      </c>
+      <c r="D56">
+        <v>0.02032636301070749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006375202612392443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01960358156613908</v>
+      </c>
+      <c r="C58">
+        <v>-0.1099195609966681</v>
+      </c>
+      <c r="D58">
+        <v>0.06040000643252594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.005292519183502237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01010640128313762</v>
+      </c>
+      <c r="C59">
+        <v>-0.1658584057160721</v>
+      </c>
+      <c r="D59">
+        <v>-0.327924145094359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.002769752797077862</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02457224217033572</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225749991988631</v>
+      </c>
+      <c r="D60">
+        <v>0.03519815761163454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01327265690504763</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001589245793318903</v>
+      </c>
+      <c r="C61">
+        <v>-0.09451002532923555</v>
+      </c>
+      <c r="D61">
+        <v>0.0545131373141417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1625078008112562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453366205370308</v>
+      </c>
+      <c r="C62">
+        <v>-0.09476776217620733</v>
+      </c>
+      <c r="D62">
+        <v>0.03932478406212078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0003343485352795444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006416257444255372</v>
+      </c>
+      <c r="C63">
+        <v>-0.0548547939216506</v>
+      </c>
+      <c r="D63">
+        <v>0.02665676182811011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0003113200884430693</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01554339568593034</v>
+      </c>
+      <c r="C64">
+        <v>-0.1055421181215856</v>
+      </c>
+      <c r="D64">
+        <v>0.05764871936062133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003880984769619376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0183273717723899</v>
+      </c>
+      <c r="C65">
+        <v>-0.124767495538964</v>
+      </c>
+      <c r="D65">
+        <v>0.02497487718328466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006478767198526567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01333442595006356</v>
+      </c>
+      <c r="C66">
+        <v>-0.1594007587417255</v>
+      </c>
+      <c r="D66">
+        <v>0.1106506039930241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003931419280206756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01572176580112553</v>
+      </c>
+      <c r="C67">
+        <v>-0.0651600917509693</v>
+      </c>
+      <c r="D67">
+        <v>0.02684916699519644</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.004988076435407085</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007936572142248326</v>
+      </c>
+      <c r="C68">
+        <v>-0.08754013540754012</v>
+      </c>
+      <c r="D68">
+        <v>-0.2613333873614359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001727347767693644</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006317432760819489</v>
+      </c>
+      <c r="C69">
+        <v>-0.0502898817541397</v>
+      </c>
+      <c r="D69">
+        <v>0.03850458759868923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002802152842859536</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001813816489991718</v>
+      </c>
+      <c r="C70">
+        <v>-0.002699755203488167</v>
+      </c>
+      <c r="D70">
+        <v>0.0003169886965766269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0008521425944229739</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00590180211076827</v>
+      </c>
+      <c r="C71">
+        <v>-0.09501716458519066</v>
+      </c>
+      <c r="D71">
+        <v>-0.3063931317523862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003131293538485341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01651078501284187</v>
+      </c>
+      <c r="C72">
+        <v>-0.1533058774061641</v>
+      </c>
+      <c r="D72">
+        <v>0.01727546873935643</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009995048023909863</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03136036469766637</v>
+      </c>
+      <c r="C73">
+        <v>-0.2791382025829331</v>
+      </c>
+      <c r="D73">
+        <v>0.05789343448030762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004321960103920561</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002200029614327901</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046205207447933</v>
+      </c>
+      <c r="D74">
+        <v>0.0357407944620274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.001841356206001245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01129534928193733</v>
+      </c>
+      <c r="C75">
+        <v>-0.1246879542935218</v>
+      </c>
+      <c r="D75">
+        <v>0.02588232207645908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009588908998244805</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02212732831258884</v>
+      </c>
+      <c r="C76">
+        <v>-0.1488288366710671</v>
+      </c>
+      <c r="D76">
+        <v>0.05767684869627851</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002007247769654053</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0236601828989594</v>
+      </c>
+      <c r="C77">
+        <v>-0.1208682123599389</v>
+      </c>
+      <c r="D77">
+        <v>0.08494006389895091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001314145164119308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01497234503524258</v>
+      </c>
+      <c r="C78">
+        <v>-0.09567463277872397</v>
+      </c>
+      <c r="D78">
+        <v>0.07214066687892649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02402102778265323</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03802868438775762</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568749102002921</v>
+      </c>
+      <c r="D79">
+        <v>0.03225973949828484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006920680488454778</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01043316685502629</v>
+      </c>
+      <c r="C80">
+        <v>-0.03984999904018386</v>
+      </c>
+      <c r="D80">
+        <v>0.02772859314587102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001146930464011869</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01564198582434317</v>
+      </c>
+      <c r="C81">
+        <v>-0.1273442662522883</v>
+      </c>
+      <c r="D81">
+        <v>0.03993322626344225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006192989225179701</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0201812647336113</v>
+      </c>
+      <c r="C82">
+        <v>-0.1416330136440665</v>
+      </c>
+      <c r="D82">
+        <v>0.03386697453706812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008609057721956838</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008191396681257</v>
+      </c>
+      <c r="C83">
+        <v>-0.05529750357118311</v>
+      </c>
+      <c r="D83">
+        <v>0.05433014753280468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01360808213275581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01171382547862539</v>
+      </c>
+      <c r="C84">
+        <v>-0.03685694028761993</v>
+      </c>
+      <c r="D84">
+        <v>-0.007343539994949177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01414339718067962</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02860271512286463</v>
+      </c>
+      <c r="C85">
+        <v>-0.1247483673872469</v>
+      </c>
+      <c r="D85">
+        <v>0.04549197230512726</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0009020650239308963</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005902793969945292</v>
+      </c>
+      <c r="C86">
+        <v>-0.04933354943915574</v>
+      </c>
+      <c r="D86">
+        <v>0.02937360733962821</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003080183004001841</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01030417911113797</v>
+      </c>
+      <c r="C87">
+        <v>-0.1275030563946769</v>
+      </c>
+      <c r="D87">
+        <v>0.07393246646628272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.0113007390890743</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002803204187699529</v>
+      </c>
+      <c r="C88">
+        <v>-0.06501695637924003</v>
+      </c>
+      <c r="D88">
+        <v>0.01811766436168161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01182159905511107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001012557284951956</v>
+      </c>
+      <c r="C89">
+        <v>-0.147348203257335</v>
+      </c>
+      <c r="D89">
+        <v>-0.3319007763475882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0007496058493923727</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00721052148754956</v>
+      </c>
+      <c r="C90">
+        <v>-0.1214596766004051</v>
+      </c>
+      <c r="D90">
+        <v>-0.3187091512309621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001029808147161064</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01057929228439908</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002169111515945</v>
+      </c>
+      <c r="D91">
+        <v>0.02099963297458225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.006081789676748182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001308854521067075</v>
+      </c>
+      <c r="C92">
+        <v>-0.136464060402821</v>
+      </c>
+      <c r="D92">
+        <v>-0.3256340135077126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008553989336543038</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005130576569949588</v>
+      </c>
+      <c r="C93">
+        <v>-0.1058030974101768</v>
+      </c>
+      <c r="D93">
+        <v>-0.3014798165471552</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004501577394667473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02289641947611698</v>
+      </c>
+      <c r="C94">
+        <v>-0.1465956782224449</v>
+      </c>
+      <c r="D94">
+        <v>0.05372474936205137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004476270773569956</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01658801382311182</v>
+      </c>
+      <c r="C95">
+        <v>-0.124744489937094</v>
+      </c>
+      <c r="D95">
+        <v>0.05891231797748623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002096374820152425</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03671356091139166</v>
+      </c>
+      <c r="C97">
+        <v>-0.2125161660894831</v>
+      </c>
+      <c r="D97">
+        <v>-0.004003663265070048</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.001642322028348564</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03727626727658143</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496710225631194</v>
+      </c>
+      <c r="D98">
+        <v>0.04937324968722877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851155335359995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818855812899534</v>
+      </c>
+      <c r="C99">
+        <v>0.1189887715014728</v>
+      </c>
+      <c r="D99">
+        <v>-0.02681680501451703</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0009999822915161048</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003513169128895819</v>
+      </c>
+      <c r="C101">
+        <v>-0.05138825732042469</v>
+      </c>
+      <c r="D101">
+        <v>0.006853724642601039</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
